--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/App-Ncstn.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/App-Ncstn.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H2">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I2">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J2">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.2841165</v>
+        <v>22.4540125</v>
       </c>
       <c r="N2">
-        <v>50.568233</v>
+        <v>44.90802499999999</v>
       </c>
       <c r="O2">
-        <v>0.1471617541362022</v>
+        <v>0.1288642936640883</v>
       </c>
       <c r="P2">
-        <v>0.1078457808771122</v>
+        <v>0.09337691147445593</v>
       </c>
       <c r="Q2">
-        <v>2576.257934080251</v>
+        <v>2395.870639915312</v>
       </c>
       <c r="R2">
-        <v>10305.031736321</v>
+        <v>9583.482559661248</v>
       </c>
       <c r="S2">
-        <v>0.02787021854902979</v>
+        <v>0.02335286543883957</v>
       </c>
       <c r="T2">
-        <v>0.01490016075322404</v>
+        <v>0.01226960157751044</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H3">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I3">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J3">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>69.312236</v>
       </c>
       <c r="O3">
-        <v>0.1344732272645348</v>
+        <v>0.1325950441213806</v>
       </c>
       <c r="P3">
-        <v>0.1478207121802869</v>
+        <v>0.1441203999745836</v>
       </c>
       <c r="Q3">
-        <v>2354.128765963179</v>
+        <v>2465.2334962297</v>
       </c>
       <c r="R3">
-        <v>14124.77259577908</v>
+        <v>14791.4009773782</v>
       </c>
       <c r="S3">
-        <v>0.02546720277190531</v>
+        <v>0.02402895429897131</v>
       </c>
       <c r="T3">
-        <v>0.02042316682422743</v>
+        <v>0.01893722826079249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H4">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I4">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J4">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.00989166666667</v>
+        <v>39.68490633333334</v>
       </c>
       <c r="N4">
-        <v>123.029675</v>
+        <v>119.054719</v>
       </c>
       <c r="O4">
-        <v>0.2386908632778325</v>
+        <v>0.2277529427655973</v>
       </c>
       <c r="P4">
-        <v>0.2623827368346512</v>
+        <v>0.2475495628382506</v>
       </c>
       <c r="Q4">
-        <v>4178.594050617571</v>
+        <v>4234.428119776925</v>
       </c>
       <c r="R4">
-        <v>25071.56430370543</v>
+        <v>25406.56871866155</v>
       </c>
       <c r="S4">
-        <v>0.04520445250369083</v>
+        <v>0.04127352639334665</v>
       </c>
       <c r="T4">
-        <v>0.03625125550495129</v>
+        <v>0.03252768225840397</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H5">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I5">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J5">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.2571535</v>
+        <v>19.3493775</v>
       </c>
       <c r="N5">
-        <v>42.514307</v>
+        <v>38.69875500000001</v>
       </c>
       <c r="O5">
-        <v>0.1237235240947616</v>
+        <v>0.1110466944105114</v>
       </c>
       <c r="P5">
-        <v>0.09066934644254382</v>
+        <v>0.08046602405264225</v>
       </c>
       <c r="Q5">
-        <v>2165.941228768535</v>
+        <v>2064.602282237438</v>
       </c>
       <c r="R5">
-        <v>8663.764915074138</v>
+        <v>8258.40912894975</v>
       </c>
       <c r="S5">
-        <v>0.02343137098641646</v>
+        <v>0.02012394929782862</v>
       </c>
       <c r="T5">
-        <v>0.0125270346822662</v>
+        <v>0.01057312819692449</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H6">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I6">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J6">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.46529166666667</v>
+        <v>31.225308</v>
       </c>
       <c r="N6">
-        <v>52.395875</v>
+        <v>93.67592400000001</v>
       </c>
       <c r="O6">
-        <v>0.1016536590537803</v>
+        <v>0.1792030382036889</v>
       </c>
       <c r="P6">
-        <v>0.1117435535885654</v>
+        <v>0.1947796293120408</v>
       </c>
       <c r="Q6">
-        <v>1779.579532758271</v>
+        <v>3331.7786146023</v>
       </c>
       <c r="R6">
-        <v>10677.47719654963</v>
+        <v>19990.6716876138</v>
       </c>
       <c r="S6">
-        <v>0.01925167113403187</v>
+        <v>0.03247528324883229</v>
       </c>
       <c r="T6">
-        <v>0.01543868381372616</v>
+        <v>0.02559378340252434</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H7">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I7">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J7">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.69120433333333</v>
+        <v>38.42773333333333</v>
       </c>
       <c r="N7">
-        <v>131.073613</v>
+        <v>115.2832</v>
       </c>
       <c r="O7">
-        <v>0.2542969721728885</v>
+        <v>0.2205379868347335</v>
       </c>
       <c r="P7">
-        <v>0.2795378700768406</v>
+        <v>0.2397074723480268</v>
       </c>
       <c r="Q7">
-        <v>4451.799287243097</v>
+        <v>4100.28622064</v>
       </c>
       <c r="R7">
-        <v>26710.79572345858</v>
+        <v>24601.71732384</v>
       </c>
       <c r="S7">
-        <v>0.04816001434894185</v>
+        <v>0.03996602770453358</v>
       </c>
       <c r="T7">
-        <v>0.03862143856610289</v>
+        <v>0.03149724203147324</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>216.91135</v>
       </c>
       <c r="I8">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J8">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.2841165</v>
+        <v>22.4540125</v>
       </c>
       <c r="N8">
-        <v>50.568233</v>
+        <v>44.90802499999999</v>
       </c>
       <c r="O8">
-        <v>0.1471617541362022</v>
+        <v>0.1288642936640883</v>
       </c>
       <c r="P8">
-        <v>0.1078457808771122</v>
+        <v>0.09337691147445593</v>
       </c>
       <c r="Q8">
-        <v>1828.137281190758</v>
+        <v>1623.510054763958</v>
       </c>
       <c r="R8">
-        <v>10968.82368714455</v>
+        <v>9741.06032858375</v>
       </c>
       <c r="S8">
-        <v>0.01977697376121053</v>
+        <v>0.01582456549024947</v>
       </c>
       <c r="T8">
-        <v>0.01585994496612527</v>
+        <v>0.01247134623871431</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>216.91135</v>
       </c>
       <c r="I9">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J9">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>69.312236</v>
       </c>
       <c r="O9">
-        <v>0.1344732272645348</v>
+        <v>0.1325950441213806</v>
       </c>
       <c r="P9">
-        <v>0.1478207121802869</v>
+        <v>0.1441203999745836</v>
       </c>
       <c r="Q9">
         <v>1670.512298030955</v>
@@ -1013,10 +1013,10 @@
         <v>15034.6106822786</v>
       </c>
       <c r="S9">
-        <v>0.01807177077227953</v>
+        <v>0.01628270252154453</v>
       </c>
       <c r="T9">
-        <v>0.02173871189920927</v>
+        <v>0.01924860631781243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>216.91135</v>
       </c>
       <c r="I10">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J10">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.00989166666667</v>
+        <v>39.68490633333334</v>
       </c>
       <c r="N10">
-        <v>123.029675</v>
+        <v>119.054719</v>
       </c>
       <c r="O10">
-        <v>0.2386908632778325</v>
+        <v>0.2277529427655973</v>
       </c>
       <c r="P10">
-        <v>0.2623827368346512</v>
+        <v>0.2475495628382506</v>
       </c>
       <c r="Q10">
-        <v>2965.170321590139</v>
+        <v>2869.368869128961</v>
       </c>
       <c r="R10">
-        <v>26686.53289431125</v>
+        <v>25824.31982216065</v>
       </c>
       <c r="S10">
-        <v>0.03207751203969311</v>
+        <v>0.02796811479668721</v>
       </c>
       <c r="T10">
-        <v>0.03858635666981439</v>
+        <v>0.03306252327956616</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>216.91135</v>
       </c>
       <c r="I11">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J11">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.2571535</v>
+        <v>19.3493775</v>
       </c>
       <c r="N11">
-        <v>42.514307</v>
+        <v>38.69875500000001</v>
       </c>
       <c r="O11">
-        <v>0.1237235240947616</v>
+        <v>0.1110466944105114</v>
       </c>
       <c r="P11">
-        <v>0.09066934644254382</v>
+        <v>0.08046602405264225</v>
       </c>
       <c r="Q11">
-        <v>1536.972620947408</v>
+        <v>1399.033198394875</v>
       </c>
       <c r="R11">
-        <v>9221.83572568445</v>
+        <v>8394.199190369251</v>
       </c>
       <c r="S11">
-        <v>0.01662712505724788</v>
+        <v>0.01363656012235273</v>
       </c>
       <c r="T11">
-        <v>0.01333395551497626</v>
+        <v>0.01074697835436265</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>216.91135</v>
       </c>
       <c r="I12">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J12">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.46529166666667</v>
+        <v>31.225308</v>
       </c>
       <c r="N12">
-        <v>52.395875</v>
+        <v>93.67592400000001</v>
       </c>
       <c r="O12">
-        <v>0.1016536590537803</v>
+        <v>0.1792030382036889</v>
       </c>
       <c r="P12">
-        <v>0.1117435535885654</v>
+        <v>0.1947796293120408</v>
       </c>
       <c r="Q12">
-        <v>1262.806664520139</v>
+        <v>2257.7079041486</v>
       </c>
       <c r="R12">
-        <v>11365.25998068125</v>
+        <v>20319.3711373374</v>
       </c>
       <c r="S12">
-        <v>0.0136611700481429</v>
+        <v>0.02200617512790691</v>
       </c>
       <c r="T12">
-        <v>0.01643315664108689</v>
+        <v>0.02601461280997077</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>216.91135</v>
       </c>
       <c r="I13">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J13">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>43.69120433333333</v>
+        <v>38.42773333333333</v>
       </c>
       <c r="N13">
-        <v>131.073613</v>
+        <v>115.2832</v>
       </c>
       <c r="O13">
-        <v>0.2542969721728885</v>
+        <v>0.2205379868347335</v>
       </c>
       <c r="P13">
-        <v>0.2795378700768406</v>
+        <v>0.2397074723480268</v>
       </c>
       <c r="Q13">
-        <v>3159.039371689727</v>
+        <v>2778.470504924444</v>
       </c>
       <c r="R13">
-        <v>28431.35434520755</v>
+        <v>25006.23454432</v>
       </c>
       <c r="S13">
-        <v>0.03417480700565594</v>
+        <v>0.02708211651593122</v>
       </c>
       <c r="T13">
-        <v>0.04110921353908494</v>
+        <v>0.03201513989330302</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H14">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I14">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J14">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.2841165</v>
+        <v>22.4540125</v>
       </c>
       <c r="N14">
-        <v>50.568233</v>
+        <v>44.90802499999999</v>
       </c>
       <c r="O14">
-        <v>0.1471617541362022</v>
+        <v>0.1288642936640883</v>
       </c>
       <c r="P14">
-        <v>0.1078457808771122</v>
+        <v>0.09337691147445593</v>
       </c>
       <c r="Q14">
-        <v>3845.051338676146</v>
+        <v>3156.277966236366</v>
       </c>
       <c r="R14">
-        <v>23070.30803205688</v>
+        <v>18937.6677974182</v>
       </c>
       <c r="S14">
-        <v>0.04159615375601038</v>
+        <v>0.03076465540547609</v>
       </c>
       <c r="T14">
-        <v>0.03335761665754616</v>
+        <v>0.02424563693156907</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H15">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I15">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J15">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>69.312236</v>
       </c>
       <c r="O15">
-        <v>0.1344732272645348</v>
+        <v>0.1325950441213806</v>
       </c>
       <c r="P15">
-        <v>0.1478207121802869</v>
+        <v>0.1441203999745836</v>
       </c>
       <c r="Q15">
-        <v>3513.524730284551</v>
+        <v>3247.655376774716</v>
       </c>
       <c r="R15">
-        <v>31621.72257256096</v>
+        <v>29228.89839097244</v>
       </c>
       <c r="S15">
-        <v>0.03800966542017103</v>
+        <v>0.0316553230136935</v>
       </c>
       <c r="T15">
-        <v>0.04572220267544984</v>
+        <v>0.03742135863180871</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H16">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I16">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J16">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.00989166666667</v>
+        <v>39.68490633333334</v>
       </c>
       <c r="N16">
-        <v>123.029675</v>
+        <v>119.054719</v>
       </c>
       <c r="O16">
-        <v>0.2386908632778325</v>
+        <v>0.2277529427655973</v>
       </c>
       <c r="P16">
-        <v>0.2623827368346512</v>
+        <v>0.2475495628382506</v>
       </c>
       <c r="Q16">
-        <v>6236.529516539777</v>
+        <v>5578.361348647777</v>
       </c>
       <c r="R16">
-        <v>56128.765648858</v>
+        <v>50205.25213782999</v>
       </c>
       <c r="S16">
-        <v>0.06746740623837875</v>
+        <v>0.05437301988424545</v>
       </c>
       <c r="T16">
-        <v>0.08115721061782978</v>
+        <v>0.06427709728637539</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H17">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I17">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J17">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.2571535</v>
+        <v>19.3493775</v>
       </c>
       <c r="N17">
-        <v>42.514307</v>
+        <v>38.69875500000001</v>
       </c>
       <c r="O17">
-        <v>0.1237235240947616</v>
+        <v>0.1110466944105114</v>
       </c>
       <c r="P17">
-        <v>0.09066934644254382</v>
+        <v>0.08046602405264225</v>
       </c>
       <c r="Q17">
-        <v>3232.655826499587</v>
+        <v>2719.87084106414</v>
       </c>
       <c r="R17">
-        <v>19395.93495899752</v>
+        <v>16319.22504638484</v>
       </c>
       <c r="S17">
-        <v>0.03497119724951094</v>
+        <v>0.02651093790466058</v>
       </c>
       <c r="T17">
-        <v>0.028044799496301</v>
+        <v>0.02089328050907924</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H18">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I18">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J18">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>17.46529166666667</v>
+        <v>31.225308</v>
       </c>
       <c r="N18">
-        <v>52.395875</v>
+        <v>93.67592400000001</v>
       </c>
       <c r="O18">
-        <v>0.1016536590537803</v>
+        <v>0.1792030382036889</v>
       </c>
       <c r="P18">
-        <v>0.1117435535885654</v>
+        <v>0.1947796293120408</v>
       </c>
       <c r="Q18">
-        <v>2656.013038987778</v>
+        <v>4389.226719694047</v>
       </c>
       <c r="R18">
-        <v>23904.11735089</v>
+        <v>39503.04047724643</v>
       </c>
       <c r="S18">
-        <v>0.02873301732968338</v>
+        <v>0.04278236865459373</v>
       </c>
       <c r="T18">
-        <v>0.03456323088621084</v>
+        <v>0.05057520215002236</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H19">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I19">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J19">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.69120433333333</v>
+        <v>38.42773333333333</v>
       </c>
       <c r="N19">
-        <v>131.073613</v>
+        <v>115.2832</v>
       </c>
       <c r="O19">
-        <v>0.2542969721728885</v>
+        <v>0.2205379868347335</v>
       </c>
       <c r="P19">
-        <v>0.2795378700768406</v>
+        <v>0.2397074723480268</v>
       </c>
       <c r="Q19">
-        <v>6644.286886997074</v>
+        <v>5401.645163081955</v>
       </c>
       <c r="R19">
-        <v>59798.58198297367</v>
+        <v>48614.8064677376</v>
       </c>
       <c r="S19">
-        <v>0.07187856665802816</v>
+        <v>0.05265054404033698</v>
       </c>
       <c r="T19">
-        <v>0.08646343913922321</v>
+        <v>0.06224087145915375</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H20">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I20">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J20">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.2841165</v>
+        <v>22.4540125</v>
       </c>
       <c r="N20">
-        <v>50.568233</v>
+        <v>44.90802499999999</v>
       </c>
       <c r="O20">
-        <v>0.1471617541362022</v>
+        <v>0.1288642936640883</v>
       </c>
       <c r="P20">
-        <v>0.1078457808771122</v>
+        <v>0.09337691147445593</v>
       </c>
       <c r="Q20">
-        <v>940.2464199790521</v>
+        <v>799.1524396758687</v>
       </c>
       <c r="R20">
-        <v>3760.985679916208</v>
+        <v>3196.609758703475</v>
       </c>
       <c r="S20">
-        <v>0.01017168074209714</v>
+        <v>0.007789443669433915</v>
       </c>
       <c r="T20">
-        <v>0.005438051299134739</v>
+        <v>0.004092575730576564</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H21">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I21">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J21">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>69.312236</v>
       </c>
       <c r="O21">
-        <v>0.1344732272645348</v>
+        <v>0.1325950441213806</v>
       </c>
       <c r="P21">
-        <v>0.1478207121802869</v>
+        <v>0.1441203999745836</v>
       </c>
       <c r="Q21">
-        <v>859.1768374919379</v>
+        <v>822.2887037641873</v>
       </c>
       <c r="R21">
-        <v>5155.061024951628</v>
+        <v>4933.732222585124</v>
       </c>
       <c r="S21">
-        <v>0.009294661810217122</v>
+        <v>0.008014955870723322</v>
       </c>
       <c r="T21">
-        <v>0.007453760447309552</v>
+        <v>0.006316589849711611</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H22">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I22">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J22">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>41.00989166666667</v>
+        <v>39.68490633333334</v>
       </c>
       <c r="N22">
-        <v>123.029675</v>
+        <v>119.054719</v>
       </c>
       <c r="O22">
-        <v>0.2386908632778325</v>
+        <v>0.2277529427655973</v>
       </c>
       <c r="P22">
-        <v>0.2623827368346512</v>
+        <v>0.2475495628382506</v>
       </c>
       <c r="Q22">
-        <v>1525.044540247712</v>
+        <v>1412.41079805187</v>
       </c>
       <c r="R22">
-        <v>9150.267241486274</v>
+        <v>8474.464788311221</v>
       </c>
       <c r="S22">
-        <v>0.01649808587542789</v>
+        <v>0.01376695334120177</v>
       </c>
       <c r="T22">
-        <v>0.01323047384245905</v>
+        <v>0.0108497413010261</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H23">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I23">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J23">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.2571535</v>
+        <v>19.3493775</v>
       </c>
       <c r="N23">
-        <v>42.514307</v>
+        <v>38.69875500000001</v>
       </c>
       <c r="O23">
-        <v>0.1237235240947616</v>
+        <v>0.1110466944105114</v>
       </c>
       <c r="P23">
-        <v>0.09066934644254382</v>
+        <v>0.08046602405264225</v>
       </c>
       <c r="Q23">
-        <v>790.4947945213028</v>
+        <v>688.6565256581363</v>
       </c>
       <c r="R23">
-        <v>3161.979178085211</v>
+        <v>2754.626102632545</v>
       </c>
       <c r="S23">
-        <v>0.008551652532045276</v>
+        <v>0.006712425499667914</v>
       </c>
       <c r="T23">
-        <v>0.004571941092210264</v>
+        <v>0.003526710103963123</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H24">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I24">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J24">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.46529166666667</v>
+        <v>31.225308</v>
       </c>
       <c r="N24">
-        <v>52.395875</v>
+        <v>93.67592400000001</v>
       </c>
       <c r="O24">
-        <v>0.1016536590537803</v>
+        <v>0.1792030382036889</v>
       </c>
       <c r="P24">
-        <v>0.1117435535885654</v>
+        <v>0.1947796293120408</v>
       </c>
       <c r="Q24">
-        <v>649.4859317498125</v>
+        <v>1111.328368051386</v>
       </c>
       <c r="R24">
-        <v>3896.915590498875</v>
+        <v>6667.970208308317</v>
       </c>
       <c r="S24">
-        <v>0.007026204411807031</v>
+        <v>0.01083226339732038</v>
       </c>
       <c r="T24">
-        <v>0.00563459387859274</v>
+        <v>0.008536911010932562</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H25">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I25">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J25">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>43.69120433333333</v>
+        <v>38.42773333333333</v>
       </c>
       <c r="N25">
-        <v>131.073613</v>
+        <v>115.2832</v>
       </c>
       <c r="O25">
-        <v>0.2542969721728885</v>
+        <v>0.2205379868347335</v>
       </c>
       <c r="P25">
-        <v>0.2795378700768406</v>
+        <v>0.2397074723480268</v>
       </c>
       <c r="Q25">
-        <v>1624.755148513491</v>
+        <v>1367.667219591466</v>
       </c>
       <c r="R25">
-        <v>9748.530891080947</v>
+        <v>8206.003317548799</v>
       </c>
       <c r="S25">
-        <v>0.01757676530704158</v>
+        <v>0.01333083181208829</v>
       </c>
       <c r="T25">
-        <v>0.01409550995101873</v>
+        <v>0.01050603375372674</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H26">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I26">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J26">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>25.2841165</v>
+        <v>22.4540125</v>
       </c>
       <c r="N26">
-        <v>50.568233</v>
+        <v>44.90802499999999</v>
       </c>
       <c r="O26">
-        <v>0.1471617541362022</v>
+        <v>0.1288642936640883</v>
       </c>
       <c r="P26">
-        <v>0.1078457808771122</v>
+        <v>0.09337691147445593</v>
       </c>
       <c r="Q26">
-        <v>2249.692006345396</v>
+        <v>1550.082282842537</v>
       </c>
       <c r="R26">
-        <v>13498.15203807237</v>
+        <v>9300.493697055224</v>
       </c>
       <c r="S26">
-        <v>0.02433739535759482</v>
+        <v>0.01510885536442425</v>
       </c>
       <c r="T26">
-        <v>0.01951712914477065</v>
+        <v>0.01190729480923146</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H27">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I27">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J27">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>69.312236</v>
       </c>
       <c r="O27">
-        <v>0.1344732272645348</v>
+        <v>0.1325950441213806</v>
       </c>
       <c r="P27">
-        <v>0.1478207121802869</v>
+        <v>0.1441203999745836</v>
       </c>
       <c r="Q27">
-        <v>2055.719886054756</v>
+        <v>1594.958718518583</v>
       </c>
       <c r="R27">
-        <v>18501.47897449281</v>
+        <v>14354.62846666724</v>
       </c>
       <c r="S27">
-        <v>0.02223898536789445</v>
+        <v>0.01554627187024798</v>
       </c>
       <c r="T27">
-        <v>0.02675149557479736</v>
+        <v>0.01837803439227234</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H28">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I28">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J28">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>41.00989166666667</v>
+        <v>39.68490633333334</v>
       </c>
       <c r="N28">
-        <v>123.029675</v>
+        <v>119.054719</v>
       </c>
       <c r="O28">
-        <v>0.2386908632778325</v>
+        <v>0.2277529427655973</v>
       </c>
       <c r="P28">
-        <v>0.2623827368346512</v>
+        <v>0.2475495628382506</v>
       </c>
       <c r="Q28">
-        <v>3648.916325139961</v>
+        <v>2739.593656303773</v>
       </c>
       <c r="R28">
-        <v>32840.24692625965</v>
+        <v>24656.34290673395</v>
       </c>
       <c r="S28">
-        <v>0.03947434536871398</v>
+        <v>0.02670317877221532</v>
       </c>
       <c r="T28">
-        <v>0.0474840806799431</v>
+        <v>0.03156717841773737</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H29">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I29">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J29">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.2571535</v>
+        <v>19.3493775</v>
       </c>
       <c r="N29">
-        <v>42.514307</v>
+        <v>38.69875500000001</v>
       </c>
       <c r="O29">
-        <v>0.1237235240947616</v>
+        <v>0.1110466944105114</v>
       </c>
       <c r="P29">
-        <v>0.09066934644254382</v>
+        <v>0.08046602405264225</v>
       </c>
       <c r="Q29">
-        <v>1891.386962506958</v>
+        <v>1335.758018607233</v>
       </c>
       <c r="R29">
-        <v>11348.32177504175</v>
+        <v>8014.548111643397</v>
       </c>
       <c r="S29">
-        <v>0.02046121520230222</v>
+        <v>0.01301980864396263</v>
       </c>
       <c r="T29">
-        <v>0.01640866549992813</v>
+        <v>0.01026091627354399</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H30">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I30">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J30">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>17.46529166666667</v>
+        <v>31.225308</v>
       </c>
       <c r="N30">
-        <v>52.395875</v>
+        <v>93.67592400000001</v>
       </c>
       <c r="O30">
-        <v>0.1016536590537803</v>
+        <v>0.1792030382036889</v>
       </c>
       <c r="P30">
-        <v>0.1117435535885654</v>
+        <v>0.1947796293120408</v>
       </c>
       <c r="Q30">
-        <v>1554.000395900361</v>
+        <v>2155.596765037044</v>
       </c>
       <c r="R30">
-        <v>13986.00356310325</v>
+        <v>19400.3708853334</v>
       </c>
       <c r="S30">
-        <v>0.0168113332466006</v>
+        <v>0.02101088445914064</v>
       </c>
       <c r="T30">
-        <v>0.02022251912635073</v>
+        <v>0.024838029363241</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H31">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I31">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J31">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>43.69120433333333</v>
+        <v>38.42773333333333</v>
       </c>
       <c r="N31">
-        <v>131.073613</v>
+        <v>115.2832</v>
       </c>
       <c r="O31">
-        <v>0.2542969721728885</v>
+        <v>0.2205379868347335</v>
       </c>
       <c r="P31">
-        <v>0.2795378700768406</v>
+        <v>0.2397074723480268</v>
       </c>
       <c r="Q31">
-        <v>3887.490121962668</v>
+        <v>2652.806424232533</v>
       </c>
       <c r="R31">
-        <v>34987.41109766401</v>
+        <v>23875.2578180928</v>
       </c>
       <c r="S31">
-        <v>0.04205526080018628</v>
+        <v>0.0258572522356972</v>
       </c>
       <c r="T31">
-        <v>0.05058868939305609</v>
+        <v>0.03056716586738322</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H32">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I32">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J32">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>25.2841165</v>
+        <v>22.4540125</v>
       </c>
       <c r="N32">
-        <v>50.568233</v>
+        <v>44.90802499999999</v>
       </c>
       <c r="O32">
-        <v>0.1471617541362022</v>
+        <v>0.1288642936640883</v>
       </c>
       <c r="P32">
-        <v>0.1078457808771122</v>
+        <v>0.09337691147445593</v>
       </c>
       <c r="Q32">
-        <v>2163.903993569478</v>
+        <v>3695.847280353029</v>
       </c>
       <c r="R32">
-        <v>12983.42396141687</v>
+        <v>22175.08368211817</v>
       </c>
       <c r="S32">
-        <v>0.02340933197025958</v>
+        <v>0.03602390829566501</v>
       </c>
       <c r="T32">
-        <v>0.01877287805631131</v>
+        <v>0.0283904561868541</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H33">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I33">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J33">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>69.312236</v>
       </c>
       <c r="O33">
-        <v>0.1344732272645348</v>
+        <v>0.1325950441213806</v>
       </c>
       <c r="P33">
-        <v>0.1478207121802869</v>
+        <v>0.1441203999745836</v>
       </c>
       <c r="Q33">
-        <v>1977.328655899184</v>
+        <v>3802.845763324593</v>
       </c>
       <c r="R33">
-        <v>17795.95790309265</v>
+        <v>34225.61186992133</v>
       </c>
       <c r="S33">
-        <v>0.02139094112206737</v>
+        <v>0.03706683654619995</v>
       </c>
       <c r="T33">
-        <v>0.02573137475929347</v>
+        <v>0.04381858252218599</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H34">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I34">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J34">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>41.00989166666667</v>
+        <v>39.68490633333334</v>
       </c>
       <c r="N34">
-        <v>123.029675</v>
+        <v>119.054719</v>
       </c>
       <c r="O34">
-        <v>0.2386908632778325</v>
+        <v>0.2277529427655973</v>
       </c>
       <c r="P34">
-        <v>0.2623827368346512</v>
+        <v>0.2475495628382506</v>
       </c>
       <c r="Q34">
-        <v>3509.7713757707</v>
+        <v>6531.988576345308</v>
       </c>
       <c r="R34">
-        <v>31587.9423819363</v>
+        <v>58787.89718710776</v>
       </c>
       <c r="S34">
-        <v>0.03796906125192794</v>
+        <v>0.06366814957790089</v>
       </c>
       <c r="T34">
-        <v>0.04567335951965363</v>
+        <v>0.07526534029514161</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H35">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I35">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J35">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>21.2571535</v>
+        <v>19.3493775</v>
       </c>
       <c r="N35">
-        <v>42.514307</v>
+        <v>38.69875500000001</v>
       </c>
       <c r="O35">
-        <v>0.1237235240947616</v>
+        <v>0.1110466944105114</v>
       </c>
       <c r="P35">
-        <v>0.09066934644254382</v>
+        <v>0.08046602405264225</v>
       </c>
       <c r="Q35">
-        <v>1819.262276796162</v>
+        <v>3184.835859955948</v>
       </c>
       <c r="R35">
-        <v>10915.57366077697</v>
+        <v>19109.01515973569</v>
       </c>
       <c r="S35">
-        <v>0.01968096306723888</v>
+        <v>0.03104301294203895</v>
       </c>
       <c r="T35">
-        <v>0.01578295015686197</v>
+        <v>0.02446501061476877</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H36">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I36">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J36">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>17.46529166666667</v>
+        <v>31.225308</v>
       </c>
       <c r="N36">
-        <v>52.395875</v>
+        <v>93.67592400000001</v>
       </c>
       <c r="O36">
-        <v>0.1016536590537803</v>
+        <v>0.1792030382036889</v>
       </c>
       <c r="P36">
-        <v>0.1117435535885654</v>
+        <v>0.1947796293120408</v>
       </c>
       <c r="Q36">
-        <v>1494.7413482435</v>
+        <v>5139.570027850733</v>
       </c>
       <c r="R36">
-        <v>13452.6721341915</v>
+        <v>46256.1302506566</v>
       </c>
       <c r="S36">
-        <v>0.01617026288351456</v>
+        <v>0.0500960633158949</v>
       </c>
       <c r="T36">
-        <v>0.01945136924259803</v>
+        <v>0.05922109057534983</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H37">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I37">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J37">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>43.69120433333333</v>
+        <v>38.42773333333333</v>
       </c>
       <c r="N37">
-        <v>131.073613</v>
+        <v>115.2832</v>
       </c>
       <c r="O37">
-        <v>0.2542969721728885</v>
+        <v>0.2205379868347335</v>
       </c>
       <c r="P37">
-        <v>0.2795378700768406</v>
+        <v>0.2397074723480268</v>
       </c>
       <c r="Q37">
-        <v>3739.247584180372</v>
+        <v>6325.062557533156</v>
       </c>
       <c r="R37">
-        <v>33653.22825762334</v>
+        <v>56925.5630177984</v>
       </c>
       <c r="S37">
-        <v>0.04045155805303474</v>
+        <v>0.06165121452614627</v>
       </c>
       <c r="T37">
-        <v>0.0486595794883547</v>
+        <v>0.07288101934298688</v>
       </c>
     </row>
   </sheetData>
